--- a/ProcessoTransacional/tipages.xlsx
+++ b/ProcessoTransacional/tipages.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\UiPath\ProcessoTransacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5277697-634C-4C80-AA65-14433C5A3F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D84117-6F1C-4136-9A9C-1ABAAFDD645E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="type" sheetId="2" r:id="rId1"/>
-    <sheet name="Plan1" sheetId="1" r:id="rId2"/>
+    <sheet name="atatable" sheetId="2" r:id="rId1"/>
+    <sheet name="deftable" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
   <si>
     <t>PRIMEIRA TIPAGEM</t>
   </si>
@@ -121,22 +121,22 @@
     <t>ROCK</t>
   </si>
   <si>
+    <t>GHOST</t>
+  </si>
+  <si>
+    <t>DRAGON</t>
+  </si>
+  <si>
+    <t>DARK</t>
+  </si>
+  <si>
+    <t>STEEL</t>
+  </si>
+  <si>
+    <t>FAIRY</t>
+  </si>
+  <si>
     <t>¼</t>
-  </si>
-  <si>
-    <t>GHOST</t>
-  </si>
-  <si>
-    <t>DRAGON</t>
-  </si>
-  <si>
-    <t>DARK</t>
-  </si>
-  <si>
-    <t>STEEL</t>
-  </si>
-  <si>
-    <t>FAIRY</t>
   </si>
 </sst>
 </file>
@@ -180,6 +180,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF680000"/>
+      <color rgb="FF800000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -456,7 +462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F88DC9-F01B-422B-8457-3833EBB2FF97}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -617,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
@@ -629,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
         <v>20</v>
@@ -905,7 +913,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -932,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
         <v>20</v>
@@ -940,7 +948,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -963,7 +971,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -986,7 +994,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -1009,7 +1017,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1021,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -1039,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
         <v>20</v>
@@ -1056,7 +1064,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -1079,17 +1087,170 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>